--- a/02.設計書/01.基本設計書/基本設計書_ビジネス基礎チェックリスト.xlsx
+++ b/02.設計書/01.基本設計書/基本設計書_ビジネス基礎チェックリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="9588"/>
+    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="9588" tabRatio="760"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">編集画面!$A$1:$AF$59</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="125">
   <si>
     <t>基本設計書</t>
     <rPh sb="0" eb="2">
@@ -343,10 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３．フロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,16 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録日時</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラベル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -428,16 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録者</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文字列</t>
     <rPh sb="0" eb="3">
       <t>モジレツ</t>
@@ -466,13 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○/△/×　それぞれを集計</t>
-    <rPh sb="11" eb="13">
-      <t>シュウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -484,63 +454,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NEW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【新規作成】画面へ遷移</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一覧表</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック結果毎に割り当てられる一意のID
-押下すると【詳細画面】へ遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -554,13 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．【NEW】ボタン押下</t>
-    <rPh sb="10" eb="12">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェック結果を編集する場合</t>
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
@@ -574,16 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．【チェック結果ID】リンク押下</t>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェック結果を検索する場合</t>
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
@@ -674,19 +575,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェック実施日順に降順</t>
-    <rPh sb="4" eb="7">
-      <t>ジッシビ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェック結果毎に割り当てられる一意のID</t>
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
@@ -706,13 +594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．XXXボタンを押下</t>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェック結果詳細を参照する場合</t>
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
@@ -816,23 +697,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２．データが削除されXXXXが表示される</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．【XXX】リンクを押下</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システムを終了する場合</t>
     <rPh sb="5" eb="7">
       <t>シュウリョウ</t>
@@ -875,21 +739,327 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録</t>
+    <t>１．【チェック結果ID】リンクを押下</t>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック実施日順に表示（降順）</t>
+    <rPh sb="4" eb="7">
+      <t>ジッシビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○/△/×　毎に集計した結果を表示</t>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック対象者名</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック結果毎に割り当てられる一意のID
+押下すると詳細画面へ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック結果</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力欄</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．【登録】ボタンを押下</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．データが登録され、メッセージXXXXが表示される</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．データが削除され、メッセージXXXXが表示される</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集を完了する場合</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．【決定】ボタンを押下</t>
+    <rPh sb="3" eb="5">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．データが更新され、メッセージXXXXが表示される</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムを終了</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録を完了する場合</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決定</t>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．【戻る】ボタンを押下</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面へ遷移する場合</t>
     <rPh sb="0" eb="2">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面項目を更新
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．詳細画面へ遷移</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．【新規作成】ボタンを押下</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．【編集】ボタンを押下</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目、イベントフローを更新
 結果一覧画面/詳細画面/登録画面/編集画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -897,34 +1067,34 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="13" eb="15">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="16" eb="18">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="18" eb="20">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="20" eb="22">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="23" eb="25">
       <t>ショウサイ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="25" eb="27">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="28" eb="30">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="30" eb="32">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="33" eb="35">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="35" eb="37">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1416,20 +1586,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,17 +1625,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1488,22 +1655,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,12 +1699,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,10 +1812,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>NEW</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規作成</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2469,313 +2638,313 @@
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F6" s="37" t="str">
+      <c r="F6" s="36" t="str">
         <f>N36</f>
         <v>ビジネス基礎チェックリスト</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="39"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38"/>
     </row>
     <row r="7" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="42"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="45"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="44"/>
     </row>
     <row r="36" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="34" t="s">
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
     </row>
     <row r="37" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
     </row>
     <row r="38" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="34" t="s">
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
     </row>
     <row r="39" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
     </row>
     <row r="40" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="35">
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="45">
         <f>更新履歴!C7</f>
         <v>42569</v>
       </c>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
     </row>
     <row r="41" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
     </row>
     <row r="42" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="34" t="str">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="33" t="str">
         <f>更新履歴!H7</f>
         <v>古屋</v>
       </c>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
     </row>
     <row r="43" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2807,75 +2976,75 @@
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="str">
+      <c r="A1" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>更新履歴</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -2956,167 +3125,169 @@
       <c r="AF4" s="57"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="47">
+      <c r="B7" s="33"/>
+      <c r="C7" s="55">
         <v>42569</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>1</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="47">
+      <c r="B9" s="33"/>
+      <c r="C9" s="55">
         <v>42563</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48" t="s">
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="H7:L8"/>
     <mergeCell ref="M6:AF6"/>
     <mergeCell ref="M7:AF8"/>
     <mergeCell ref="M9:AF9"/>
@@ -3132,8 +3303,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="H7:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3152,75 +3321,75 @@
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="str">
+      <c r="A1" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>画面遷移図</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -4541,7 +4710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:AF2"/>
@@ -4553,75 +4722,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="str">
+      <c r="A1" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>結果一覧画面</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -4712,339 +4881,423 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68" t="s">
+      <c r="B28" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B29" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="58" t="s">
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58" t="s">
+      <c r="C31" s="62"/>
+      <c r="D31" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58" t="s">
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B33" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="60" t="s">
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B34" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="58" t="s">
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B35" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58" t="s">
+      <c r="C35" s="62"/>
+      <c r="D35" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B35" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B36" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B37" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B41" s="31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
@@ -5061,7 +5314,7 @@
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B42" s="31"/>
       <c r="C42" s="31" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
@@ -5077,7 +5330,7 @@
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B43" s="31"/>
       <c r="C43" s="31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
@@ -5090,11 +5343,27 @@
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
     </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B45" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+    </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B46" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
@@ -5109,7 +5378,7 @@
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B47" s="31"/>
       <c r="C47" s="31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
@@ -5122,43 +5391,47 @@
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="31"/>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B49" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" s="31"/>
-      <c r="C52" s="31" t="s">
-        <v>77</v>
-      </c>
+      <c r="C52" s="31"/>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
@@ -5170,53 +5443,45 @@
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="J54" s="31"/>
       <c r="K54" s="31"/>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
-        <v>102</v>
-      </c>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="50">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="Q37:AE37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:AE36"/>
     <mergeCell ref="A1:AF2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:P4"/>
@@ -5227,6 +5492,9 @@
     <mergeCell ref="N28:P28"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D29:I30"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="N29:P30"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C30"/>
     <mergeCell ref="B31:C31"/>
@@ -5248,15 +5516,12 @@
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q29:AE30"/>
     <mergeCell ref="Q34:AE34"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="D29:I30"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="N29:P30"/>
-    <mergeCell ref="Q29:AE30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5279,75 +5544,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="str">
+      <c r="A1" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>詳細画面</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -5438,295 +5703,423 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68" t="s">
+      <c r="B28" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B29" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="58" t="s">
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="60" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="58" t="s">
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58" t="s">
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58" t="s">
+      <c r="C31" s="62"/>
+      <c r="D31" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="60" t="s">
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="58" t="s">
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B33" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="58" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B34" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B35" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B36" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B37" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B41" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
@@ -5740,7 +6133,7 @@
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B42" s="31"/>
       <c r="C42" s="31" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
@@ -5753,7 +6146,7 @@
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B43" s="31"/>
       <c r="C43" s="31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
@@ -5765,68 +6158,78 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B45" s="31" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B46" s="31"/>
       <c r="C46" s="31" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B47" s="31"/>
       <c r="C47" s="31" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B48" s="31"/>
       <c r="C48" s="31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="31" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C50" s="31"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="31"/>
       <c r="C52" s="31" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="55">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:AE35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="N34:P34"/>
     <mergeCell ref="Q34:AE34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:AE36"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="J33:M33"/>
@@ -5862,6 +6265,11 @@
     <mergeCell ref="E3:P4"/>
     <mergeCell ref="Q3:T4"/>
     <mergeCell ref="U3:AF4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="Q37:AE37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5871,7 +6279,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:AF2"/>
@@ -5883,75 +6291,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="str">
+      <c r="A1" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>登録画面</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -6042,298 +6450,452 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68" t="s">
+      <c r="B28" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+    </row>
+    <row r="29" spans="1:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="58" t="s">
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B33" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B34" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B35" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B36" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B43" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B48" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="31"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="50">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:AE34"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:AE34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:AE35"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="J31:M31"/>
@@ -6364,6 +6926,11 @@
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="N28:P28"/>
     <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:AE36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6373,7 +6940,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:AF2"/>
@@ -6385,75 +6952,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="str">
+      <c r="A1" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",A2),LEN(CELL("filename",A2))-FIND("]",CELL("filename",A2)))</f>
         <v>編集画面</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -6544,293 +7111,447 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68" t="s">
+      <c r="B28" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+    </row>
+    <row r="29" spans="1:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="58" t="s">
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B33" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B34" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B35" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B36" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B43" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B48" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="31"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="50">
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="N34:P34"/>
     <mergeCell ref="Q34:AE34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:AE35"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="J33:M33"/>
@@ -6866,6 +7587,11 @@
     <mergeCell ref="E3:P4"/>
     <mergeCell ref="Q3:T4"/>
     <mergeCell ref="U3:AF4"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:AE36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
